--- a/postgres_django_app/dashboard/sheets/etc/1.4_ref (1).xlsx
+++ b/postgres_django_app/dashboard/sheets/etc/1.4_ref (1).xlsx
@@ -127,10 +127,10 @@
     <t xml:space="preserve"> electricity,gas,water supply &amp; other utility services</t>
   </si>
   <si>
-    <t xml:space="preserve"> $construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $trade,repair, hotels &amp; restaurants</t>
+    <t xml:space="preserve"> construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trade,repair, hotels &amp; restaurants</t>
   </si>
   <si>
     <t xml:space="preserve"> transport,storage,communication &amp; services related to broadcasting</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">real estate, ownership of dwelling &amp; professional services</t>
   </si>
   <si>
-    <t xml:space="preserve">$public administration and defence</t>
+    <t xml:space="preserve">public administration and defence</t>
   </si>
   <si>
     <t xml:space="preserve">other services</t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve"> government final consumption expenditure</t>
   </si>
   <si>
-    <t xml:space="preserve"> private final consumption expenditure</t>
+    <t xml:space="preserve">private final consumption expenditure</t>
   </si>
   <si>
     <t xml:space="preserve"> gross fixed capital formation</t>
@@ -429,8 +429,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
